--- a/Input/Now_Health/rateSheet1.xlsx
+++ b/Input/Now_Health/rateSheet1.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$2017</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$505</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$2017</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$J$505</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -232,12 +232,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -302,30 +302,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L2017"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1992" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J506" activeCellId="0" sqref="J506:J2017"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,10 +353,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -76975,7 +76969,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2017"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -76983,6 +76976,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>